--- a/Documentation/Agile-Project-Plan.xlsx
+++ b/Documentation/Agile-Project-Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4cff5697cfe4737/University/Year 4 (Masters) - 1st Year/Semester B/CMP9134M - Advanced Software Engineering/Assessment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="365" documentId="13_ncr:1_{5637A24D-25EC-4458-9528-639E6615948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E6812F-9D13-4C12-84E3-45EAAF3BB8D4}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{5637A24D-25EC-4458-9528-639E6615948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC89452-3472-445D-A0BA-CCEBBBEDEAE4}"/>
   <bookViews>
-    <workbookView xWindow="25520" yWindow="-7160" windowWidth="38560" windowHeight="21040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-7290" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="3" r:id="rId1"/>
@@ -1198,6 +1198,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,13 +1237,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,39 +1265,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,6 +1298,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,9 +1498,9 @@
   </sheetPr>
   <dimension ref="B1:CE33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1570,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="54">
-        <v>45329</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="6" spans="2:83" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1580,89 +1584,89 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="78" t="s">
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-      <c r="AP7" s="79"/>
-      <c r="AQ7" s="79"/>
-      <c r="AR7" s="79"/>
-      <c r="AS7" s="79"/>
-      <c r="AT7" s="79"/>
-      <c r="AU7" s="79"/>
-      <c r="AV7" s="80"/>
-      <c r="AW7" s="81" t="s">
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="86"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="87"/>
+      <c r="AW7" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="AX7" s="82"/>
-      <c r="AY7" s="82"/>
-      <c r="AZ7" s="82"/>
-      <c r="BA7" s="82"/>
-      <c r="BB7" s="82"/>
-      <c r="BC7" s="82"/>
-      <c r="BD7" s="82"/>
-      <c r="BE7" s="82"/>
-      <c r="BF7" s="82"/>
-      <c r="BG7" s="82"/>
-      <c r="BH7" s="82"/>
-      <c r="BI7" s="82"/>
-      <c r="BJ7" s="82"/>
-      <c r="BK7" s="82"/>
-      <c r="BL7" s="82"/>
-      <c r="BM7" s="82"/>
-      <c r="BN7" s="82"/>
-      <c r="BO7" s="82"/>
-      <c r="BP7" s="83"/>
-      <c r="BQ7" s="98" t="s">
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="89"/>
+      <c r="BC7" s="89"/>
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="89"/>
+      <c r="BF7" s="89"/>
+      <c r="BG7" s="89"/>
+      <c r="BH7" s="89"/>
+      <c r="BI7" s="89"/>
+      <c r="BJ7" s="89"/>
+      <c r="BK7" s="89"/>
+      <c r="BL7" s="89"/>
+      <c r="BM7" s="89"/>
+      <c r="BN7" s="89"/>
+      <c r="BO7" s="89"/>
+      <c r="BP7" s="90"/>
+      <c r="BQ7" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="BR7" s="99"/>
-      <c r="BS7" s="99"/>
-      <c r="BT7" s="99"/>
-      <c r="BU7" s="99"/>
-      <c r="BV7" s="99"/>
-      <c r="BW7" s="99"/>
-      <c r="BX7" s="99"/>
-      <c r="BY7" s="99"/>
-      <c r="BZ7" s="99"/>
-      <c r="CA7" s="99"/>
-      <c r="CB7" s="99"/>
-      <c r="CC7" s="99"/>
-      <c r="CD7" s="99"/>
-      <c r="CE7" s="100"/>
+      <c r="BR7" s="80"/>
+      <c r="BS7" s="80"/>
+      <c r="BT7" s="80"/>
+      <c r="BU7" s="80"/>
+      <c r="BV7" s="80"/>
+      <c r="BW7" s="80"/>
+      <c r="BX7" s="80"/>
+      <c r="BY7" s="80"/>
+      <c r="BZ7" s="80"/>
+      <c r="CA7" s="80"/>
+      <c r="CB7" s="80"/>
+      <c r="CC7" s="80"/>
+      <c r="CD7" s="80"/>
+      <c r="CE7" s="81"/>
     </row>
     <row r="8" spans="2:83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -1686,111 +1690,111 @@
       <c r="H8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91" t="s">
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="91" t="s">
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="95" t="s">
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="96"/>
-      <c r="AE8" s="96"/>
-      <c r="AF8" s="96"/>
-      <c r="AG8" s="96"/>
-      <c r="AH8" s="96" t="s">
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="AI8" s="96"/>
-      <c r="AJ8" s="96"/>
-      <c r="AK8" s="96"/>
-      <c r="AL8" s="96"/>
-      <c r="AM8" s="96" t="s">
+      <c r="AI8" s="95"/>
+      <c r="AJ8" s="95"/>
+      <c r="AK8" s="95"/>
+      <c r="AL8" s="95"/>
+      <c r="AM8" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="AN8" s="96"/>
-      <c r="AO8" s="96"/>
-      <c r="AP8" s="96"/>
-      <c r="AQ8" s="96"/>
-      <c r="AR8" s="96" t="s">
+      <c r="AN8" s="95"/>
+      <c r="AO8" s="95"/>
+      <c r="AP8" s="95"/>
+      <c r="AQ8" s="95"/>
+      <c r="AR8" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="AS8" s="96"/>
-      <c r="AT8" s="96"/>
-      <c r="AU8" s="96"/>
-      <c r="AV8" s="97"/>
-      <c r="AW8" s="94" t="s">
+      <c r="AS8" s="95"/>
+      <c r="AT8" s="95"/>
+      <c r="AU8" s="95"/>
+      <c r="AV8" s="96"/>
+      <c r="AW8" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="AX8" s="87"/>
-      <c r="AY8" s="87"/>
-      <c r="AZ8" s="87"/>
-      <c r="BA8" s="87"/>
-      <c r="BB8" s="87" t="s">
+      <c r="AX8" s="98"/>
+      <c r="AY8" s="98"/>
+      <c r="AZ8" s="98"/>
+      <c r="BA8" s="98"/>
+      <c r="BB8" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="BC8" s="87"/>
-      <c r="BD8" s="87"/>
-      <c r="BE8" s="87"/>
-      <c r="BF8" s="87"/>
-      <c r="BG8" s="87" t="s">
+      <c r="BC8" s="98"/>
+      <c r="BD8" s="98"/>
+      <c r="BE8" s="98"/>
+      <c r="BF8" s="98"/>
+      <c r="BG8" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="BH8" s="87"/>
-      <c r="BI8" s="87"/>
-      <c r="BJ8" s="87"/>
-      <c r="BK8" s="87"/>
-      <c r="BL8" s="87" t="s">
+      <c r="BH8" s="98"/>
+      <c r="BI8" s="98"/>
+      <c r="BJ8" s="98"/>
+      <c r="BK8" s="98"/>
+      <c r="BL8" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="BM8" s="87"/>
-      <c r="BN8" s="87"/>
-      <c r="BO8" s="87"/>
-      <c r="BP8" s="88"/>
-      <c r="BQ8" s="89" t="s">
+      <c r="BM8" s="98"/>
+      <c r="BN8" s="98"/>
+      <c r="BO8" s="98"/>
+      <c r="BP8" s="99"/>
+      <c r="BQ8" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="BR8" s="90"/>
-      <c r="BS8" s="90"/>
-      <c r="BT8" s="90"/>
-      <c r="BU8" s="90"/>
-      <c r="BV8" s="90" t="s">
+      <c r="BR8" s="78"/>
+      <c r="BS8" s="78"/>
+      <c r="BT8" s="78"/>
+      <c r="BU8" s="78"/>
+      <c r="BV8" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="BW8" s="90"/>
-      <c r="BX8" s="90"/>
-      <c r="BY8" s="90"/>
-      <c r="BZ8" s="90"/>
-      <c r="CA8" s="90" t="s">
+      <c r="BW8" s="78"/>
+      <c r="BX8" s="78"/>
+      <c r="BY8" s="78"/>
+      <c r="BZ8" s="78"/>
+      <c r="CA8" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="CB8" s="90"/>
-      <c r="CC8" s="90"/>
-      <c r="CD8" s="90"/>
-      <c r="CE8" s="90"/>
+      <c r="CB8" s="78"/>
+      <c r="CC8" s="78"/>
+      <c r="CD8" s="78"/>
+      <c r="CE8" s="78"/>
     </row>
     <row r="9" spans="2:83" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
@@ -3688,6 +3692,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="BG8:BK8"/>
     <mergeCell ref="CA8:CE8"/>
     <mergeCell ref="BQ7:CE7"/>
     <mergeCell ref="I7:AB7"/>
@@ -3704,9 +3711,6 @@
     <mergeCell ref="BL8:BP8"/>
     <mergeCell ref="BQ8:BU8"/>
     <mergeCell ref="BV8:BZ8"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="BG8:BK8"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H26">
     <cfRule type="dataBar" priority="10">

--- a/Documentation/Agile-Project-Plan.xlsx
+++ b/Documentation/Agile-Project-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4cff5697cfe4737/University/Year 4 (Masters) - 1st Year/Semester B/CMP9134M - Advanced Software Engineering/Assessment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{5637A24D-25EC-4458-9528-639E6615948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC89452-3472-445D-A0BA-CCEBBBEDEAE4}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="13_ncr:1_{5637A24D-25EC-4458-9528-639E6615948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F638BD4-973C-4AD5-88B1-AE7A883EBB4C}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-7290" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,7 +314,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,12 +441,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="42">
     <border>
@@ -1003,7 +997,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1158,7 +1152,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,9 +1191,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,31 +1251,13 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1500,7 +1493,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="BZ24" sqref="BZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1584,89 +1577,89 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="82" t="s">
+      <c r="I7" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="85" t="s">
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="86"/>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="86"/>
-      <c r="AO7" s="86"/>
-      <c r="AP7" s="86"/>
-      <c r="AQ7" s="86"/>
-      <c r="AR7" s="86"/>
-      <c r="AS7" s="86"/>
-      <c r="AT7" s="86"/>
-      <c r="AU7" s="86"/>
-      <c r="AV7" s="87"/>
-      <c r="AW7" s="88" t="s">
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
+      <c r="AO7" s="91"/>
+      <c r="AP7" s="91"/>
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="91"/>
+      <c r="AT7" s="91"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="89"/>
-      <c r="BA7" s="89"/>
-      <c r="BB7" s="89"/>
-      <c r="BC7" s="89"/>
-      <c r="BD7" s="89"/>
-      <c r="BE7" s="89"/>
-      <c r="BF7" s="89"/>
-      <c r="BG7" s="89"/>
-      <c r="BH7" s="89"/>
-      <c r="BI7" s="89"/>
-      <c r="BJ7" s="89"/>
-      <c r="BK7" s="89"/>
-      <c r="BL7" s="89"/>
-      <c r="BM7" s="89"/>
-      <c r="BN7" s="89"/>
-      <c r="BO7" s="89"/>
-      <c r="BP7" s="90"/>
-      <c r="BQ7" s="79" t="s">
+      <c r="AX7" s="94"/>
+      <c r="AY7" s="94"/>
+      <c r="AZ7" s="94"/>
+      <c r="BA7" s="94"/>
+      <c r="BB7" s="94"/>
+      <c r="BC7" s="94"/>
+      <c r="BD7" s="94"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="94"/>
+      <c r="BG7" s="94"/>
+      <c r="BH7" s="94"/>
+      <c r="BI7" s="94"/>
+      <c r="BJ7" s="94"/>
+      <c r="BK7" s="94"/>
+      <c r="BL7" s="94"/>
+      <c r="BM7" s="94"/>
+      <c r="BN7" s="94"/>
+      <c r="BO7" s="94"/>
+      <c r="BP7" s="95"/>
+      <c r="BQ7" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="BR7" s="80"/>
-      <c r="BS7" s="80"/>
-      <c r="BT7" s="80"/>
-      <c r="BU7" s="80"/>
-      <c r="BV7" s="80"/>
-      <c r="BW7" s="80"/>
-      <c r="BX7" s="80"/>
-      <c r="BY7" s="80"/>
-      <c r="BZ7" s="80"/>
-      <c r="CA7" s="80"/>
-      <c r="CB7" s="80"/>
-      <c r="CC7" s="80"/>
-      <c r="CD7" s="80"/>
-      <c r="CE7" s="81"/>
+      <c r="BR7" s="85"/>
+      <c r="BS7" s="85"/>
+      <c r="BT7" s="85"/>
+      <c r="BU7" s="85"/>
+      <c r="BV7" s="85"/>
+      <c r="BW7" s="85"/>
+      <c r="BX7" s="85"/>
+      <c r="BY7" s="85"/>
+      <c r="BZ7" s="85"/>
+      <c r="CA7" s="85"/>
+      <c r="CB7" s="85"/>
+      <c r="CC7" s="85"/>
+      <c r="CD7" s="85"/>
+      <c r="CE7" s="86"/>
     </row>
     <row r="8" spans="2:83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -1678,10 +1671,10 @@
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="72" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -1690,111 +1683,111 @@
       <c r="H8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92" t="s">
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92" t="s">
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="92" t="s">
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="94" t="s">
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="95" t="s">
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="AI8" s="95"/>
-      <c r="AJ8" s="95"/>
-      <c r="AK8" s="95"/>
-      <c r="AL8" s="95"/>
-      <c r="AM8" s="95" t="s">
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AN8" s="95"/>
-      <c r="AO8" s="95"/>
-      <c r="AP8" s="95"/>
-      <c r="AQ8" s="95"/>
-      <c r="AR8" s="95" t="s">
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="AS8" s="95"/>
-      <c r="AT8" s="95"/>
-      <c r="AU8" s="95"/>
-      <c r="AV8" s="96"/>
-      <c r="AW8" s="97" t="s">
+      <c r="AS8" s="83"/>
+      <c r="AT8" s="83"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="98"/>
+      <c r="AW8" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="AX8" s="98"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="98"/>
-      <c r="BA8" s="98"/>
-      <c r="BB8" s="98" t="s">
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="77"/>
+      <c r="AZ8" s="77"/>
+      <c r="BA8" s="77"/>
+      <c r="BB8" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="98"/>
-      <c r="BE8" s="98"/>
-      <c r="BF8" s="98"/>
-      <c r="BG8" s="98" t="s">
+      <c r="BC8" s="77"/>
+      <c r="BD8" s="77"/>
+      <c r="BE8" s="77"/>
+      <c r="BF8" s="77"/>
+      <c r="BG8" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="BH8" s="98"/>
-      <c r="BI8" s="98"/>
-      <c r="BJ8" s="98"/>
-      <c r="BK8" s="98"/>
-      <c r="BL8" s="98" t="s">
+      <c r="BH8" s="77"/>
+      <c r="BI8" s="77"/>
+      <c r="BJ8" s="77"/>
+      <c r="BK8" s="77"/>
+      <c r="BL8" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="BM8" s="98"/>
-      <c r="BN8" s="98"/>
-      <c r="BO8" s="98"/>
-      <c r="BP8" s="99"/>
-      <c r="BQ8" s="100" t="s">
+      <c r="BM8" s="77"/>
+      <c r="BN8" s="77"/>
+      <c r="BO8" s="77"/>
+      <c r="BP8" s="78"/>
+      <c r="BQ8" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="BR8" s="78"/>
-      <c r="BS8" s="78"/>
-      <c r="BT8" s="78"/>
-      <c r="BU8" s="78"/>
-      <c r="BV8" s="78" t="s">
+      <c r="BR8" s="80"/>
+      <c r="BS8" s="80"/>
+      <c r="BT8" s="80"/>
+      <c r="BU8" s="80"/>
+      <c r="BV8" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="BW8" s="78"/>
-      <c r="BX8" s="78"/>
-      <c r="BY8" s="78"/>
-      <c r="BZ8" s="78"/>
-      <c r="CA8" s="78" t="s">
+      <c r="BW8" s="80"/>
+      <c r="BX8" s="80"/>
+      <c r="BY8" s="80"/>
+      <c r="BZ8" s="80"/>
+      <c r="CA8" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="CB8" s="78"/>
-      <c r="CC8" s="78"/>
-      <c r="CD8" s="78"/>
-      <c r="CE8" s="78"/>
+      <c r="CB8" s="80"/>
+      <c r="CC8" s="80"/>
+      <c r="CD8" s="80"/>
+      <c r="CE8" s="80"/>
     </row>
     <row r="9" spans="2:83" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
@@ -1806,10 +1799,10 @@
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="74" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2052,8 +2045,8 @@
         <v>20</v>
       </c>
       <c r="D10" s="39"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="40" t="str">
         <f>IF(F10-E10=0,"",F10-E10)</f>
         <v/>
@@ -2145,13 +2138,13 @@
       <c r="D11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="67">
         <v>45322</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <v>45356</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="70">
         <f t="shared" ref="G11:G26" si="0">IF(F11-E11=0,"",F11-E11)</f>
         <v>34</v>
       </c>
@@ -2244,13 +2237,13 @@
       <c r="D12" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="67">
         <v>45378</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <v>45419</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="70">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -2343,13 +2336,13 @@
       <c r="D13" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="67">
         <v>45357</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="69">
         <v>45420</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="70">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -2440,8 +2433,8 @@
         <v>24</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="66"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2533,13 +2526,13 @@
       <c r="D15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="67">
         <v>45371</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="69">
         <v>45387</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="70">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2632,13 +2625,13 @@
       <c r="D16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="67">
         <v>45371</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="69">
         <v>45388</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="70">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2731,13 +2724,13 @@
       <c r="D17" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="67">
         <v>45385</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="69">
         <v>45398</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="70">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2827,16 +2820,16 @@
       <c r="C18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="67">
         <v>45392</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <v>45399</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="70">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2927,8 +2920,8 @@
         <v>30</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="66"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3014,19 +3007,19 @@
       <c r="B20" s="41">
         <v>3.1</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="75" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="67">
         <v>45339</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="69">
         <v>45398</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="70">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -3119,9 +3112,9 @@
       <c r="D21" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71" t="str">
+      <c r="E21" s="67"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3214,9 +3207,9 @@
       <c r="D22" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71" t="str">
+      <c r="E22" s="67"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3307,8 +3300,8 @@
         <v>33</v>
       </c>
       <c r="D23" s="45"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="66"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3400,18 +3393,18 @@
       <c r="D24" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="67">
         <v>45410</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="69">
         <v>45419</v>
       </c>
-      <c r="G24" s="71">
+      <c r="G24" s="70">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H24" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="24"/>
@@ -3477,12 +3470,12 @@
       <c r="BR24" s="24"/>
       <c r="BS24" s="24"/>
       <c r="BT24" s="24"/>
-      <c r="BU24" s="64"/>
-      <c r="BV24" s="64"/>
-      <c r="BW24" s="64"/>
-      <c r="BX24" s="64"/>
-      <c r="BY24" s="64"/>
-      <c r="BZ24" s="64"/>
+      <c r="BU24" s="24"/>
+      <c r="BV24" s="28"/>
+      <c r="BW24" s="28"/>
+      <c r="BX24" s="28"/>
+      <c r="BY24" s="28"/>
+      <c r="BZ24" s="28"/>
       <c r="CA24" s="28"/>
       <c r="CB24" s="28"/>
       <c r="CC24" s="28"/>
@@ -3499,13 +3492,13 @@
       <c r="D25" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="67">
         <v>45385</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="69">
         <v>45391</v>
       </c>
-      <c r="G25" s="71">
+      <c r="G25" s="70">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -3598,13 +3591,13 @@
       <c r="D26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="67">
         <v>45385</v>
       </c>
-      <c r="F26" s="70">
+      <c r="F26" s="69">
         <v>45391</v>
       </c>
-      <c r="G26" s="71">
+      <c r="G26" s="70">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -3692,9 +3685,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="BG8:BK8"/>
     <mergeCell ref="CA8:CE8"/>
     <mergeCell ref="BQ7:CE7"/>
     <mergeCell ref="I7:AB7"/>
@@ -3711,6 +3701,9 @@
     <mergeCell ref="BL8:BP8"/>
     <mergeCell ref="BQ8:BU8"/>
     <mergeCell ref="BV8:BZ8"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="BG8:BK8"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H26">
     <cfRule type="dataBar" priority="10">

--- a/Documentation/Agile-Project-Plan.xlsx
+++ b/Documentation/Agile-Project-Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4cff5697cfe4737/University/Year 4 (Masters) - 1st Year/Semester B/CMP9134M - Advanced Software Engineering/Assessment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="13_ncr:1_{5637A24D-25EC-4458-9528-639E6615948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F638BD4-973C-4AD5-88B1-AE7A883EBB4C}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="13_ncr:1_{5637A24D-25EC-4458-9528-639E6615948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC00BBEE-76AE-4C6C-9DDF-5A5D4FCB6189}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-7290" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="38730" windowHeight="21210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>DURATION</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>COMPLETION</t>
+  </si>
+  <si>
+    <t>Chrismario Zahi &amp; Chukwuma Ajoku</t>
   </si>
 </sst>
 </file>
@@ -1191,6 +1194,66 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,66 +1261,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,7 +1496,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BZ24" sqref="BZ24"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1504,7 @@
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
@@ -1577,89 +1580,89 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="87" t="s">
+      <c r="I7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="90" t="s">
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="91"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="91"/>
-      <c r="AP7" s="91"/>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="93" t="s">
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="85"/>
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="85"/>
+      <c r="AI7" s="85"/>
+      <c r="AJ7" s="85"/>
+      <c r="AK7" s="85"/>
+      <c r="AL7" s="85"/>
+      <c r="AM7" s="85"/>
+      <c r="AN7" s="85"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="85"/>
+      <c r="AQ7" s="85"/>
+      <c r="AR7" s="85"/>
+      <c r="AS7" s="85"/>
+      <c r="AT7" s="85"/>
+      <c r="AU7" s="85"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="AX7" s="94"/>
-      <c r="AY7" s="94"/>
-      <c r="AZ7" s="94"/>
-      <c r="BA7" s="94"/>
-      <c r="BB7" s="94"/>
-      <c r="BC7" s="94"/>
-      <c r="BD7" s="94"/>
-      <c r="BE7" s="94"/>
-      <c r="BF7" s="94"/>
-      <c r="BG7" s="94"/>
-      <c r="BH7" s="94"/>
-      <c r="BI7" s="94"/>
-      <c r="BJ7" s="94"/>
-      <c r="BK7" s="94"/>
-      <c r="BL7" s="94"/>
-      <c r="BM7" s="94"/>
-      <c r="BN7" s="94"/>
-      <c r="BO7" s="94"/>
-      <c r="BP7" s="95"/>
-      <c r="BQ7" s="84" t="s">
+      <c r="AX7" s="88"/>
+      <c r="AY7" s="88"/>
+      <c r="AZ7" s="88"/>
+      <c r="BA7" s="88"/>
+      <c r="BB7" s="88"/>
+      <c r="BC7" s="88"/>
+      <c r="BD7" s="88"/>
+      <c r="BE7" s="88"/>
+      <c r="BF7" s="88"/>
+      <c r="BG7" s="88"/>
+      <c r="BH7" s="88"/>
+      <c r="BI7" s="88"/>
+      <c r="BJ7" s="88"/>
+      <c r="BK7" s="88"/>
+      <c r="BL7" s="88"/>
+      <c r="BM7" s="88"/>
+      <c r="BN7" s="88"/>
+      <c r="BO7" s="88"/>
+      <c r="BP7" s="89"/>
+      <c r="BQ7" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="BR7" s="85"/>
-      <c r="BS7" s="85"/>
-      <c r="BT7" s="85"/>
-      <c r="BU7" s="85"/>
-      <c r="BV7" s="85"/>
-      <c r="BW7" s="85"/>
-      <c r="BX7" s="85"/>
-      <c r="BY7" s="85"/>
-      <c r="BZ7" s="85"/>
-      <c r="CA7" s="85"/>
-      <c r="CB7" s="85"/>
-      <c r="CC7" s="85"/>
-      <c r="CD7" s="85"/>
-      <c r="CE7" s="86"/>
+      <c r="BR7" s="79"/>
+      <c r="BS7" s="79"/>
+      <c r="BT7" s="79"/>
+      <c r="BU7" s="79"/>
+      <c r="BV7" s="79"/>
+      <c r="BW7" s="79"/>
+      <c r="BX7" s="79"/>
+      <c r="BY7" s="79"/>
+      <c r="BZ7" s="79"/>
+      <c r="CA7" s="79"/>
+      <c r="CB7" s="79"/>
+      <c r="CC7" s="79"/>
+      <c r="CD7" s="79"/>
+      <c r="CE7" s="80"/>
     </row>
     <row r="8" spans="2:83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -1683,111 +1686,111 @@
       <c r="H8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81" t="s">
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81" t="s">
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="81" t="s">
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="97" t="s">
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83" t="s">
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="83" t="s">
+      <c r="AI8" s="94"/>
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="83"/>
-      <c r="AP8" s="83"/>
-      <c r="AQ8" s="83"/>
-      <c r="AR8" s="83" t="s">
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="94"/>
+      <c r="AP8" s="94"/>
+      <c r="AQ8" s="94"/>
+      <c r="AR8" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="AS8" s="83"/>
-      <c r="AT8" s="83"/>
-      <c r="AU8" s="83"/>
-      <c r="AV8" s="98"/>
-      <c r="AW8" s="99" t="s">
+      <c r="AS8" s="94"/>
+      <c r="AT8" s="94"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="95"/>
+      <c r="AW8" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="77"/>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="77"/>
-      <c r="BB8" s="77" t="s">
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="77"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="77" t="s">
+      <c r="BC8" s="97"/>
+      <c r="BD8" s="97"/>
+      <c r="BE8" s="97"/>
+      <c r="BF8" s="97"/>
+      <c r="BG8" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="BH8" s="77"/>
-      <c r="BI8" s="77"/>
-      <c r="BJ8" s="77"/>
-      <c r="BK8" s="77"/>
-      <c r="BL8" s="77" t="s">
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="97"/>
+      <c r="BJ8" s="97"/>
+      <c r="BK8" s="97"/>
+      <c r="BL8" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="BM8" s="77"/>
-      <c r="BN8" s="77"/>
-      <c r="BO8" s="77"/>
-      <c r="BP8" s="78"/>
-      <c r="BQ8" s="79" t="s">
+      <c r="BM8" s="97"/>
+      <c r="BN8" s="97"/>
+      <c r="BO8" s="97"/>
+      <c r="BP8" s="98"/>
+      <c r="BQ8" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="BR8" s="80"/>
-      <c r="BS8" s="80"/>
-      <c r="BT8" s="80"/>
-      <c r="BU8" s="80"/>
-      <c r="BV8" s="80" t="s">
+      <c r="BR8" s="77"/>
+      <c r="BS8" s="77"/>
+      <c r="BT8" s="77"/>
+      <c r="BU8" s="77"/>
+      <c r="BV8" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="BW8" s="80"/>
-      <c r="BX8" s="80"/>
-      <c r="BY8" s="80"/>
-      <c r="BZ8" s="80"/>
-      <c r="CA8" s="80" t="s">
+      <c r="BW8" s="77"/>
+      <c r="BX8" s="77"/>
+      <c r="BY8" s="77"/>
+      <c r="BZ8" s="77"/>
+      <c r="CA8" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="CB8" s="80"/>
-      <c r="CC8" s="80"/>
-      <c r="CD8" s="80"/>
-      <c r="CE8" s="80"/>
+      <c r="CB8" s="77"/>
+      <c r="CC8" s="77"/>
+      <c r="CD8" s="77"/>
+      <c r="CE8" s="77"/>
     </row>
     <row r="9" spans="2:83" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
@@ -3391,7 +3394,7 @@
         <v>34</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E24" s="67">
         <v>45410</v>
@@ -3490,7 +3493,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E25" s="67">
         <v>45385</v>
@@ -3685,6 +3688,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="BG8:BK8"/>
     <mergeCell ref="CA8:CE8"/>
     <mergeCell ref="BQ7:CE7"/>
     <mergeCell ref="I7:AB7"/>
@@ -3701,9 +3707,6 @@
     <mergeCell ref="BL8:BP8"/>
     <mergeCell ref="BQ8:BU8"/>
     <mergeCell ref="BV8:BZ8"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="BG8:BK8"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H26">
     <cfRule type="dataBar" priority="10">

--- a/Documentation/Agile-Project-Plan.xlsx
+++ b/Documentation/Agile-Project-Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4cff5697cfe4737/University/Year 4 (Masters) - 1st Year/Semester B/CMP9134M - Advanced Software Engineering/Assessment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="13_ncr:1_{5637A24D-25EC-4458-9528-639E6615948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC00BBEE-76AE-4C6C-9DDF-5A5D4FCB6189}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="13_ncr:1_{5637A24D-25EC-4458-9528-639E6615948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B5E6993-DAC6-4481-A0BA-91F8CE16016B}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="38730" windowHeight="21210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-7290" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="3" r:id="rId1"/>
@@ -317,7 +317,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +444,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="42">
     <border>
@@ -1000,7 +1006,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1194,6 +1200,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,33 +1254,22 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1496,7 +1503,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1580,89 +1587,89 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="84" t="s">
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="85"/>
-      <c r="AN7" s="85"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="85"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="85"/>
-      <c r="AT7" s="85"/>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="86"/>
-      <c r="AW7" s="87" t="s">
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="89"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="AX7" s="88"/>
-      <c r="AY7" s="88"/>
-      <c r="AZ7" s="88"/>
-      <c r="BA7" s="88"/>
-      <c r="BB7" s="88"/>
-      <c r="BC7" s="88"/>
-      <c r="BD7" s="88"/>
-      <c r="BE7" s="88"/>
-      <c r="BF7" s="88"/>
-      <c r="BG7" s="88"/>
-      <c r="BH7" s="88"/>
-      <c r="BI7" s="88"/>
-      <c r="BJ7" s="88"/>
-      <c r="BK7" s="88"/>
-      <c r="BL7" s="88"/>
-      <c r="BM7" s="88"/>
-      <c r="BN7" s="88"/>
-      <c r="BO7" s="88"/>
-      <c r="BP7" s="89"/>
-      <c r="BQ7" s="78" t="s">
+      <c r="AX7" s="92"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="92"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="92"/>
+      <c r="BC7" s="92"/>
+      <c r="BD7" s="92"/>
+      <c r="BE7" s="92"/>
+      <c r="BF7" s="92"/>
+      <c r="BG7" s="92"/>
+      <c r="BH7" s="92"/>
+      <c r="BI7" s="92"/>
+      <c r="BJ7" s="92"/>
+      <c r="BK7" s="92"/>
+      <c r="BL7" s="92"/>
+      <c r="BM7" s="92"/>
+      <c r="BN7" s="92"/>
+      <c r="BO7" s="92"/>
+      <c r="BP7" s="93"/>
+      <c r="BQ7" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="BR7" s="79"/>
-      <c r="BS7" s="79"/>
-      <c r="BT7" s="79"/>
-      <c r="BU7" s="79"/>
-      <c r="BV7" s="79"/>
-      <c r="BW7" s="79"/>
-      <c r="BX7" s="79"/>
-      <c r="BY7" s="79"/>
-      <c r="BZ7" s="79"/>
-      <c r="CA7" s="79"/>
-      <c r="CB7" s="79"/>
-      <c r="CC7" s="79"/>
-      <c r="CD7" s="79"/>
-      <c r="CE7" s="80"/>
+      <c r="BR7" s="83"/>
+      <c r="BS7" s="83"/>
+      <c r="BT7" s="83"/>
+      <c r="BU7" s="83"/>
+      <c r="BV7" s="83"/>
+      <c r="BW7" s="83"/>
+      <c r="BX7" s="83"/>
+      <c r="BY7" s="83"/>
+      <c r="BZ7" s="83"/>
+      <c r="CA7" s="83"/>
+      <c r="CB7" s="83"/>
+      <c r="CC7" s="83"/>
+      <c r="CD7" s="83"/>
+      <c r="CE7" s="84"/>
     </row>
     <row r="8" spans="2:83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -1686,111 +1693,111 @@
       <c r="H8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="I8" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91" t="s">
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91" t="s">
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="91" t="s">
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="93" t="s">
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="94" t="s">
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="AI8" s="94"/>
-      <c r="AJ8" s="94"/>
-      <c r="AK8" s="94"/>
-      <c r="AL8" s="94"/>
-      <c r="AM8" s="94" t="s">
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="79"/>
+      <c r="AM8" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="94"/>
-      <c r="AP8" s="94"/>
-      <c r="AQ8" s="94"/>
-      <c r="AR8" s="94" t="s">
+      <c r="AN8" s="79"/>
+      <c r="AO8" s="79"/>
+      <c r="AP8" s="79"/>
+      <c r="AQ8" s="79"/>
+      <c r="AR8" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="AS8" s="94"/>
-      <c r="AT8" s="94"/>
-      <c r="AU8" s="94"/>
-      <c r="AV8" s="95"/>
-      <c r="AW8" s="96" t="s">
+      <c r="AS8" s="79"/>
+      <c r="AT8" s="79"/>
+      <c r="AU8" s="79"/>
+      <c r="AV8" s="96"/>
+      <c r="AW8" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="AX8" s="97"/>
-      <c r="AY8" s="97"/>
-      <c r="AZ8" s="97"/>
-      <c r="BA8" s="97"/>
-      <c r="BB8" s="97" t="s">
+      <c r="AX8" s="80"/>
+      <c r="AY8" s="80"/>
+      <c r="AZ8" s="80"/>
+      <c r="BA8" s="80"/>
+      <c r="BB8" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="BC8" s="97"/>
-      <c r="BD8" s="97"/>
-      <c r="BE8" s="97"/>
-      <c r="BF8" s="97"/>
-      <c r="BG8" s="97" t="s">
+      <c r="BC8" s="80"/>
+      <c r="BD8" s="80"/>
+      <c r="BE8" s="80"/>
+      <c r="BF8" s="80"/>
+      <c r="BG8" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="BH8" s="97"/>
-      <c r="BI8" s="97"/>
-      <c r="BJ8" s="97"/>
-      <c r="BK8" s="97"/>
-      <c r="BL8" s="97" t="s">
+      <c r="BH8" s="80"/>
+      <c r="BI8" s="80"/>
+      <c r="BJ8" s="80"/>
+      <c r="BK8" s="80"/>
+      <c r="BL8" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="BM8" s="97"/>
-      <c r="BN8" s="97"/>
-      <c r="BO8" s="97"/>
+      <c r="BM8" s="80"/>
+      <c r="BN8" s="80"/>
+      <c r="BO8" s="80"/>
       <c r="BP8" s="98"/>
       <c r="BQ8" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="BR8" s="77"/>
-      <c r="BS8" s="77"/>
-      <c r="BT8" s="77"/>
-      <c r="BU8" s="77"/>
-      <c r="BV8" s="77" t="s">
+      <c r="BR8" s="81"/>
+      <c r="BS8" s="81"/>
+      <c r="BT8" s="81"/>
+      <c r="BU8" s="81"/>
+      <c r="BV8" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="BW8" s="77"/>
-      <c r="BX8" s="77"/>
-      <c r="BY8" s="77"/>
-      <c r="BZ8" s="77"/>
-      <c r="CA8" s="77" t="s">
+      <c r="BW8" s="81"/>
+      <c r="BX8" s="81"/>
+      <c r="BY8" s="81"/>
+      <c r="BZ8" s="81"/>
+      <c r="CA8" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="CB8" s="77"/>
-      <c r="CC8" s="77"/>
-      <c r="CD8" s="77"/>
-      <c r="CE8" s="77"/>
+      <c r="CB8" s="81"/>
+      <c r="CC8" s="81"/>
+      <c r="CD8" s="81"/>
+      <c r="CE8" s="81"/>
     </row>
     <row r="9" spans="2:83" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
@@ -3400,14 +3407,14 @@
         <v>45410</v>
       </c>
       <c r="F24" s="69">
-        <v>45419</v>
+        <v>45417</v>
       </c>
       <c r="G24" s="70">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H24" s="52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="24"/>
@@ -3473,12 +3480,12 @@
       <c r="BR24" s="24"/>
       <c r="BS24" s="24"/>
       <c r="BT24" s="24"/>
-      <c r="BU24" s="24"/>
-      <c r="BV24" s="28"/>
-      <c r="BW24" s="28"/>
-      <c r="BX24" s="28"/>
-      <c r="BY24" s="28"/>
-      <c r="BZ24" s="28"/>
+      <c r="BU24" s="100"/>
+      <c r="BV24" s="100"/>
+      <c r="BW24" s="100"/>
+      <c r="BX24" s="100"/>
+      <c r="BY24" s="100"/>
+      <c r="BZ24" s="100"/>
       <c r="CA24" s="28"/>
       <c r="CB24" s="28"/>
       <c r="CC24" s="28"/>
@@ -3688,6 +3695,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="BL8:BP8"/>
+    <mergeCell ref="BQ8:BU8"/>
+    <mergeCell ref="BV8:BZ8"/>
     <mergeCell ref="S8:W8"/>
     <mergeCell ref="AM8:AQ8"/>
     <mergeCell ref="BG8:BK8"/>
@@ -3704,9 +3714,6 @@
     <mergeCell ref="AR8:AV8"/>
     <mergeCell ref="AW8:BA8"/>
     <mergeCell ref="BB8:BF8"/>
-    <mergeCell ref="BL8:BP8"/>
-    <mergeCell ref="BQ8:BU8"/>
-    <mergeCell ref="BV8:BZ8"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H26">
     <cfRule type="dataBar" priority="10">
